--- a/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_EigenGradCAM_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_EigenGradCAM_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.367918142085874</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.3670170027874028</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.4253417128190721</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.383688942249503</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.3672745906917898</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006297852127990479</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006299324717146701</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.00620401388598213</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006458357398629096</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.00630178183350351</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.0191102684371908</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01900289908972379</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.02595219768087821</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02338698558301879</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01907063491944095</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.00397165917729255</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.003976418378471362</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.003668387168194397</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.003878790100846219</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.003974909983872186</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.004188835050892284</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.004194372002696548</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.003836002204608004</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.00402416887865509</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.004191742298687505</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.005296781947681171</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.005288471220585762</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.005826368911669011</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.005993930880233088</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.00529937084481792</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.005722939141502198</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.005732125800895977</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.005137534880035228</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.00535281785088189</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.005726265346556899</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.2447829472402253</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2451415067620189</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2219343509170066</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2463965602097175</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.2451608978225625</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1710831464922717</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1712758658462852</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1588024330935815</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1477520945732601</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1709124144938333</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.00155122523866365</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.001535927908307246</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002526021625015743</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002811998490648971</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.001555643691699011</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.01171551498574095</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.01173631220110105</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.0103902477719926</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.01270974621182566</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.01175135213256502</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.001593951426655954</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.001593933965339705</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.001595064119366788</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.001851229020505228</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.001597909273324712</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01134435163605281</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01136280739092957</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01016829001339588</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.0120495132427041</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01137341726158625</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.1359359234488257</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.13637281269284</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.1080958986615682</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1275167727149584</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.1362359834544507</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.003057289699083034</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003063628273095762</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.002653374839543979</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.002706992996345178</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003058118120316141</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002552242935255197</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.00255839620005955</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.002160136590174003</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.002095927282315433</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002551250876647321</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>7.201895992795857e-05</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>7.201064811121008e-05</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>7.254861632823835e-05</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.000114546564471484</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>7.266784444888473e-05</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.003751952115918352</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.003722475914477641</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.005630272971802871</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01120323338712118</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.003838056506944794</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>5.295802019825509e-05</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>5.370839575874775e-05</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>5.141612515792977e-06</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>7.383801585749682e-06</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>5.29926628854531e-05</v>
       </c>
     </row>
